--- a/ejemplos/modelos_masa/Populus_NE_Espana_IFN_3_parcelas.xlsx
+++ b/ejemplos/modelos_masa/Populus_NE_Espana_IFN_3_parcelas.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O4"/>
+  <dimension ref="A1:P4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -371,65 +371,70 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Provincia</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>ID_especie_principal</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Anho</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Edad</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>Densidad</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>Area_basimetrica</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>Altura_dominante</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>Longitud</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>Latitud</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2001_2020</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2021_2040</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2041_2060</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2061_2080</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>Martonne_2081_2100</t>
         </is>
@@ -447,42 +452,45 @@
         </is>
       </c>
       <c r="C2">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D2">
+        <v>258</v>
+      </c>
+      <c r="E2">
         <v>2004</v>
       </c>
-      <c r="E2">
+      <c r="F2">
         <v>8</v>
       </c>
-      <c r="F2">
+      <c r="G2">
         <v>31.83098861837907</v>
       </c>
-      <c r="G2">
+      <c r="H2">
         <v>0.8649</v>
       </c>
-      <c r="H2">
+      <c r="I2">
         <v>11.5</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>-0.5473164397275606</v>
       </c>
-      <c r="J2">
+      <c r="K2">
         <v>42.66845761679623</v>
       </c>
-      <c r="K2">
+      <c r="L2">
         <v>51.25671511628276</v>
       </c>
-      <c r="L2">
+      <c r="M2">
         <v>34.51445518856436</v>
       </c>
-      <c r="M2">
+      <c r="N2">
         <v>33.17354469874893</v>
       </c>
-      <c r="N2">
+      <c r="O2">
         <v>31.66549549585081</v>
       </c>
-      <c r="O2">
+      <c r="P2">
         <v>30.0926243567753</v>
       </c>
     </row>
@@ -498,42 +506,45 @@
         </is>
       </c>
       <c r="C3">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D3">
+        <v>258</v>
+      </c>
+      <c r="E3">
         <v>2004</v>
       </c>
-      <c r="E3">
+      <c r="F3">
         <v>25</v>
       </c>
-      <c r="F3">
+      <c r="G3">
         <v>284.0738895364674</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>40.60519677777778</v>
       </c>
-      <c r="H3">
+      <c r="I3">
         <v>35.79288398235632</v>
       </c>
-      <c r="I3">
+      <c r="J3">
         <v>0.1967974574962279</v>
       </c>
-      <c r="J3">
+      <c r="K3">
         <v>42.04808249154399</v>
       </c>
-      <c r="K3">
+      <c r="L3">
         <v>19.779746040245</v>
       </c>
-      <c r="L3">
+      <c r="M3">
         <v>18.67835888501133</v>
       </c>
-      <c r="M3">
+      <c r="N3">
         <v>18.0100871370023</v>
       </c>
-      <c r="N3">
+      <c r="O3">
         <v>17.28631211781104</v>
       </c>
-      <c r="O3">
+      <c r="P3">
         <v>16.31578945662286</v>
       </c>
     </row>
@@ -549,42 +560,45 @@
         </is>
       </c>
       <c r="C4">
-        <v>258</v>
+        <v>22</v>
       </c>
       <c r="D4">
+        <v>258</v>
+      </c>
+      <c r="E4">
         <v>2004</v>
       </c>
-      <c r="E4">
+      <c r="F4">
         <v>14</v>
       </c>
-      <c r="F4">
+      <c r="G4">
         <v>268.7950149996454</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>18.72653333333333</v>
       </c>
-      <c r="H4">
+      <c r="I4">
         <v>28.192801438155</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>0.1256729529536974</v>
       </c>
-      <c r="J4">
+      <c r="K4">
         <v>41.74914639292928</v>
       </c>
-      <c r="K4">
+      <c r="L4">
         <v>14.91616017271352</v>
       </c>
-      <c r="L4">
+      <c r="M4">
         <v>14.65930028285591</v>
       </c>
-      <c r="M4">
+      <c r="N4">
         <v>14.04790422170013</v>
       </c>
-      <c r="N4">
+      <c r="O4">
         <v>13.4953872320941</v>
       </c>
-      <c r="O4">
+      <c r="P4">
         <v>12.72570931231036</v>
       </c>
     </row>
